--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入带描述头.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入带描述头.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\kasugaharu\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC6FDF1-54F4-441B-90E6-0BA26D6F8E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92670D61-E08A-4D93-BF1D-DA6EDAE762E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="1260" windowWidth="20016" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>正常</t>
   </si>
   <si>
-    <t>3607232017304031048</t>
-  </si>
-  <si>
     <t>袁贵安</t>
   </si>
   <si>
@@ -845,6 +842,10 @@
       </rPr>
       <t>气等。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3607232017304031046</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1021,10 +1022,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1347,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1371,24 +1372,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
@@ -1445,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -1463,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1481,25 +1482,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1517,25 +1518,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1553,25 +1554,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1589,25 +1590,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1625,25 +1626,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1661,25 +1662,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1697,25 +1698,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1733,25 +1734,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1769,25 +1770,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1805,25 +1806,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1841,25 +1842,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1877,25 +1878,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="H15" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1913,25 +1914,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1949,25 +1950,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="H17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1985,25 +1986,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2036,5 +2037,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入带描述头.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据导入带描述头.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\kasugaharu\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92670D61-E08A-4D93-BF1D-DA6EDAE762E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34124879-46F5-4C34-B3BD-6253DD868E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
